--- a/medicine/Enfance/Xavier_Deutsch/Xavier_Deutsch.xlsx
+++ b/medicine/Enfance/Xavier_Deutsch/Xavier_Deutsch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xavier Deutsch  est un écrivain né à Louvain le 9 février 1965.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En janvier 1989, il publie son premier roman La Nuit dans les yeux, chez Gallimard. Il reçoit divers prix littéraires dont le prix Mæterlinck pour Les Garçons en 1990[réf. nécessaire], le prix Victor Rossel le 4 décembre 2002 pour son roman La Belle Étoile.
-En 1994, il publie La Guerre que je n'ai pas voulue, un petit livre illustré expliquant aux plus jeunes la guerre en Yougoslavie de 1991[1].
-Le 29 août 2012, il cosigne une carte blanche dans La Libre Belgique intitulée « Michelle Martin, vous n'êtes pas seule » dans laquelle les signataires soulignent, à propos de la libération anticipée de Michelle Martin, ex-épouse et complice de Marc Dutroux, que « la justice doit s’exercer de manière impartiale, à l’abri de toute pression »[2].
-En 2018, il est l'écrivain sélectionné pour représenter son pays, la Belgique, pour le Prix Hans-Christian-Andersen[3], dans la catégorie Auteur, prix international danois.
+En 1994, il publie La Guerre que je n'ai pas voulue, un petit livre illustré expliquant aux plus jeunes la guerre en Yougoslavie de 1991.
+Le 29 août 2012, il cosigne une carte blanche dans La Libre Belgique intitulée « Michelle Martin, vous n'êtes pas seule » dans laquelle les signataires soulignent, à propos de la libération anticipée de Michelle Martin, ex-épouse et complice de Marc Dutroux, que « la justice doit s’exercer de manière impartiale, à l’abri de toute pression ».
+En 2018, il est l'écrivain sélectionné pour représenter son pays, la Belgique, pour le Prix Hans-Christian-Andersen, dans la catégorie Auteur, prix international danois.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Nuit dans les yeux, Gallimard, 1989
 Les Garçons, L'école des loisirs, 1990
@@ -607,13 +623,15 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1998 : (international) « Honour List »[4] de l' IBBY pour Pas de soleil en Alaska
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1998 : (international) « Honour List » de l' IBBY pour Pas de soleil en Alaska
 2002 : Prix Victor Rossel pour La Belle Étoile
-2011 : Prix Libbylit[5], décerné par l' IBBY, pour Onze
-2012 : Prix RTS Littérature Ados[6] pour Onze
-2018 : Sélection Prix Hans-Christian-Andersen[3]</t>
+2011 : Prix Libbylit, décerné par l' IBBY, pour Onze
+2012 : Prix RTS Littérature Ados pour Onze
+2018 : Sélection Prix Hans-Christian-Andersen</t>
         </is>
       </c>
     </row>
